--- a/Documentation/Iteration 2/Agile Gantt Chart.xlsx
+++ b/Documentation/Iteration 2/Agile Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1650A066-8D07-41B2-81B9-57C90560F8C7}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEA6834-D1BA-4E01-BA39-E79748F047D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
   <si>
     <t>Task 3</t>
   </si>
@@ -262,6 +262,15 @@
   <si>
     <t>Test Personas - three</t>
   </si>
+  <si>
+    <t xml:space="preserve">Set up GitHub </t>
+  </si>
+  <si>
+    <t>Push all documentation onto GitHub</t>
+  </si>
+  <si>
+    <t>Deploy Timups website</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +280,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,7 +871,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1251,6 +1260,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,8 +1299,8 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1305,37 +1317,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <fill>
         <patternFill>
@@ -1588,36 +1570,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1864,190 +1816,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
@@ -2061,75 +1829,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2378,6 +2077,181 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2548,21 +2422,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="83"/>
-      <tableStyleElement type="headerRow" dxfId="82"/>
-      <tableStyleElement type="firstRowStripe" dxfId="81"/>
-      <tableStyleElement type="secondRowStripe" dxfId="80"/>
+      <tableStyleElement type="wholeTable" dxfId="73"/>
+      <tableStyleElement type="headerRow" dxfId="72"/>
+      <tableStyleElement type="firstRowStripe" dxfId="71"/>
+      <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="79"/>
-      <tableStyleElement type="headerRow" dxfId="78"/>
-      <tableStyleElement type="totalRow" dxfId="77"/>
-      <tableStyleElement type="firstColumn" dxfId="76"/>
-      <tableStyleElement type="lastColumn" dxfId="75"/>
-      <tableStyleElement type="firstRowStripe" dxfId="74"/>
-      <tableStyleElement type="secondRowStripe" dxfId="73"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="72"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="71"/>
+      <tableStyleElement type="wholeTable" dxfId="69"/>
+      <tableStyleElement type="headerRow" dxfId="68"/>
+      <tableStyleElement type="totalRow" dxfId="67"/>
+      <tableStyleElement type="firstColumn" dxfId="66"/>
+      <tableStyleElement type="lastColumn" dxfId="65"/>
+      <tableStyleElement type="firstRowStripe" dxfId="64"/>
+      <tableStyleElement type="secondRowStripe" dxfId="63"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="62"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="61"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2656,7 +2530,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$C$7" horiz="1" max="365" page="2" val="61"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2738,9 +2612,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
+          <xdr:colOff>209549</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2891,8 +2765,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G32" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="B9:G32" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G35" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="B9:G35" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2901,12 +2775,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="54" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="53" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2918,7 +2792,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2928,9 +2802,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="49"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2945,7 +2819,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2955,9 +2829,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="45"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3239,7 +3113,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="8" customWidth="1"/>
@@ -3248,10 +3122,10 @@
     <col min="7" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="28.8">
       <c r="D1" s="125"/>
     </row>
-    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="50.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="131"/>
       <c r="C2" s="142" t="s">
@@ -3268,7 +3142,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="14.4" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="126"/>
       <c r="C3" s="127"/>
@@ -3283,7 +3157,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="67.2" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="126"/>
       <c r="C4" s="143" t="s">
@@ -3300,7 +3174,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="67.2" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="126"/>
       <c r="C5" s="143" t="s">
@@ -3317,7 +3191,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.4">
       <c r="A6" s="6"/>
       <c r="B6" s="129"/>
       <c r="C6" s="129"/>
@@ -3325,15 +3199,15 @@
       <c r="E6" s="129"/>
       <c r="F6" s="129"/>
     </row>
-    <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="50.1" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.4" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="90" customHeight="1">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3341,51 +3215,51 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.4" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="D19" s="8"/>
@@ -3407,20 +3281,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="12" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" style="12" customWidth="1"/>
     <col min="9" max="64" width="3.5546875" style="12" customWidth="1"/>
@@ -3428,30 +3302,30 @@
     <col min="66" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="25.2" customHeight="1"/>
+    <row r="2" spans="1:68" ht="49.95" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
@@ -3498,7 +3372,7 @@
       <c r="BL2" s="76"/>
       <c r="BM2" s="76"/>
     </row>
-    <row r="3" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" ht="19.95" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="77"/>
       <c r="C3" s="78"/>
@@ -3565,7 +3439,7 @@
       <c r="BL3" s="98"/>
       <c r="BM3" s="99"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="30" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="81" t="s">
         <v>22</v>
@@ -3578,26 +3452,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="149" t="s">
+      <c r="N4" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
       <c r="W4" s="99"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -3646,7 +3520,7 @@
       <c r="BL4" s="99"/>
       <c r="BM4" s="99"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="30" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="87" t="s">
         <v>21</v>
@@ -3715,7 +3589,7 @@
       <c r="BL5" s="98"/>
       <c r="BM5" s="99"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:68" ht="30" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="89" t="s">
         <v>17</v>
@@ -3730,7 +3604,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="109" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>February</v>
+        <v>April</v>
       </c>
       <c r="J6" s="109"/>
       <c r="K6" s="109"/>
@@ -3740,7 +3614,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="109" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>March</v>
+        <v/>
       </c>
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
@@ -3750,7 +3624,7 @@
       <c r="V6" s="109"/>
       <c r="W6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>May</v>
       </c>
       <c r="X6" s="109"/>
       <c r="Y6" s="109"/>
@@ -3780,7 +3654,7 @@
       <c r="AQ6" s="109"/>
       <c r="AR6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>April</v>
+        <v/>
       </c>
       <c r="AS6" s="109"/>
       <c r="AT6" s="109"/>
@@ -3800,7 +3674,7 @@
       <c r="BE6" s="108"/>
       <c r="BF6" s="108" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>June</v>
       </c>
       <c r="BG6" s="108"/>
       <c r="BH6" s="108"/>
@@ -3810,13 +3684,13 @@
       <c r="BL6" s="108"/>
       <c r="BM6" s="99"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="89" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="93">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D7" s="83"/>
       <c r="E7" s="84"/>
@@ -3825,231 +3699,231 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44620</v>
+        <v>44668</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44621</v>
+        <v>44669</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44622</v>
+        <v>44670</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44671</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44672</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44673</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44626</v>
+        <v>44674</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44627</v>
+        <v>44675</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44628</v>
+        <v>44676</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44629</v>
+        <v>44677</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44678</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44679</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44680</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44681</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44634</v>
+        <v>44682</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44635</v>
+        <v>44683</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44636</v>
+        <v>44684</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44685</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44686</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44687</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44640</v>
+        <v>44688</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44641</v>
+        <v>44689</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44642</v>
+        <v>44690</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44643</v>
+        <v>44691</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44692</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44693</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44694</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44647</v>
+        <v>44695</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44648</v>
+        <v>44696</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44649</v>
+        <v>44697</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44650</v>
+        <v>44698</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44699</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44652</v>
+        <v>44700</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44701</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44702</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44655</v>
+        <v>44703</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44656</v>
+        <v>44704</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44657</v>
+        <v>44705</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44658</v>
+        <v>44706</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44707</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44660</v>
+        <v>44708</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44661</v>
+        <v>44709</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44662</v>
+        <v>44710</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44663</v>
+        <v>44711</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44664</v>
+        <v>44712</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44665</v>
+        <v>44713</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44666</v>
+        <v>44714</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44667</v>
+        <v>44715</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44668</v>
+        <v>44716</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44669</v>
+        <v>44717</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44670</v>
+        <v>44718</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44671</v>
+        <v>44719</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44672</v>
+        <v>44720</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44673</v>
+        <v>44721</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44674</v>
+        <v>44722</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44675</v>
+        <v>44723</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
-    <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="19.95" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="95"/>
       <c r="C8" s="95"/>
@@ -4116,7 +3990,7 @@
       <c r="BL8" s="123"/>
       <c r="BM8" s="99"/>
     </row>
-    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="132" t="s">
         <v>23</v>
@@ -4139,27 +4013,27 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4167,27 +4041,27 @@
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4195,27 +4069,27 @@
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4223,27 +4097,27 @@
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4251,27 +4125,27 @@
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4279,27 +4153,27 @@
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4307,27 +4181,27 @@
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4335,27 +4209,27 @@
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4363,7 +4237,7 @@
       </c>
       <c r="BM9" s="99"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -4429,7 +4303,7 @@
       <c r="BL10" s="42"/>
       <c r="BM10" s="99"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="134" t="s">
         <v>37</v>
@@ -4667,7 +4541,7 @@
       <c r="BM11" s="21"/>
       <c r="BP11" s="47"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="71" t="s">
         <v>53</v>
@@ -4692,89 +4566,89 @@
         <f ca="1">IF(AND($C12="Goal",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
-      <c r="J12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="P12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="R12" s="107">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="S12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="U12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="V12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X12" s="29">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y12" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Z12" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AA12" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB12" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AC12" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AD12" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+      <c r="J12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="K12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="L12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="M12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="N12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="O12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="P12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Q12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="R12" s="107" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="S12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="T12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="U12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="V12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="W12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="X12" s="29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="Y12" s="29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z12" s="29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA12" s="29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB12" s="29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AC12" s="29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AD12" s="29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
       <c r="AE12" s="29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4914,7 +4788,7 @@
       </c>
       <c r="BM12" s="21"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="71" t="s">
         <v>52</v>
@@ -5161,7 +5035,7 @@
       </c>
       <c r="BM13" s="21"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="71" t="s">
         <v>38</v>
@@ -5408,7 +5282,7 @@
       </c>
       <c r="BM14" s="21"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="71" t="s">
         <v>42</v>
@@ -5655,7 +5529,7 @@
       </c>
       <c r="BM15" s="21"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="71" t="s">
         <v>54</v>
@@ -5735,7 +5609,7 @@
       <c r="BL16" s="29"/>
       <c r="BM16" s="21"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="71" t="s">
         <v>62</v>
@@ -5757,7 +5631,7 @@
       </c>
       <c r="H17" s="103"/>
       <c r="I17" s="29" t="str">
-        <f t="shared" ref="I17:R23" ca="1" si="13">IF(AND($C17="Goal",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="I17:R24" ca="1" si="13">IF(AND($C17="Goal",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="J17" s="29" t="str">
@@ -5797,7 +5671,7 @@
         <v/>
       </c>
       <c r="S17" s="29" t="str">
-        <f t="shared" ref="S17:AB23" ca="1" si="14">IF(AND($C17="Goal",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="S17:AB24" ca="1" si="14">IF(AND($C17="Goal",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",S$7&gt;=$F17,S$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="T17" s="29" t="str">
@@ -5837,7 +5711,7 @@
         <v/>
       </c>
       <c r="AC17" s="29" t="str">
-        <f t="shared" ref="AC17:AL23" ca="1" si="15">IF(AND($C17="Goal",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="AC17:AL24" ca="1" si="15">IF(AND($C17="Goal",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$7&gt;=$F17,AC$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AD17" s="29" t="str">
@@ -5877,7 +5751,7 @@
         <v/>
       </c>
       <c r="AM17" s="29" t="str">
-        <f t="shared" ref="AM17:AV23" ca="1" si="16">IF(AND($C17="Goal",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="AM17:AV24" ca="1" si="16">IF(AND($C17="Goal",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$7&gt;=$F17,AM$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AN17" s="29" t="str">
@@ -5917,7 +5791,7 @@
         <v/>
       </c>
       <c r="AW17" s="29" t="str">
-        <f t="shared" ref="AW17:BF23" ca="1" si="17">IF(AND($C17="Goal",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="AW17:BF24" ca="1" si="17">IF(AND($C17="Goal",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$7&gt;=$F17,AW$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AX17" s="29" t="str">
@@ -5957,7 +5831,7 @@
         <v/>
       </c>
       <c r="BG17" s="29" t="str">
-        <f t="shared" ref="BG17:BL23" ca="1" si="18">IF(AND($C17="Goal",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="BG17:BL24" ca="1" si="18">IF(AND($C17="Goal",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$7&gt;=$F17,BG$7&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BH17" s="29" t="str">
@@ -5982,7 +5856,7 @@
       </c>
       <c r="BM17" s="21"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="71" t="s">
         <v>55</v>
@@ -6088,9 +5962,9 @@
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AD18" s="29">
+      <c r="AD18" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AE18" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6230,7 +6104,7 @@
       </c>
       <c r="BM18" s="21"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="134" t="s">
         <v>43</v>
@@ -6467,7 +6341,7 @@
       </c>
       <c r="BM19" s="21"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="71" t="s">
         <v>57</v>
@@ -6577,89 +6451,89 @@
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AE20" s="29">
+      <c r="AE20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AF20" s="29">
+        <v/>
+      </c>
+      <c r="AF20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AG20" s="29">
+        <v/>
+      </c>
+      <c r="AG20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AH20" s="29">
+        <v/>
+      </c>
+      <c r="AH20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AI20" s="29">
+        <v/>
+      </c>
+      <c r="AI20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="29">
+        <v/>
+      </c>
+      <c r="AJ20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AK20" s="29">
+        <v/>
+      </c>
+      <c r="AK20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AL20" s="29">
+        <v/>
+      </c>
+      <c r="AL20" s="29" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM20" s="29">
+        <v/>
+      </c>
+      <c r="AM20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AN20" s="29">
+        <v/>
+      </c>
+      <c r="AN20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AO20" s="29">
+        <v/>
+      </c>
+      <c r="AO20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AP20" s="29">
+        <v/>
+      </c>
+      <c r="AP20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AQ20" s="29">
+        <v/>
+      </c>
+      <c r="AQ20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AR20" s="29">
+        <v/>
+      </c>
+      <c r="AR20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AS20" s="29">
+        <v/>
+      </c>
+      <c r="AS20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AT20" s="29">
+        <v/>
+      </c>
+      <c r="AT20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AU20" s="29">
+        <v/>
+      </c>
+      <c r="AU20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AV20" s="29">
+        <v/>
+      </c>
+      <c r="AV20" s="29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AW20" s="29">
+        <v/>
+      </c>
+      <c r="AW20" s="29" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AX20" s="29">
+        <v/>
+      </c>
+      <c r="AX20" s="29" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AY20" s="29">
+        <v/>
+      </c>
+      <c r="AY20" s="29" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AZ20" s="29" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -6715,7 +6589,7 @@
       </c>
       <c r="BM20" s="21"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="71" t="s">
         <v>56</v>
@@ -6963,274 +6837,106 @@
       </c>
       <c r="BM21" s="21"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="71" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C22" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="68">
         <v>1</v>
       </c>
       <c r="F22" s="69">
-        <f>F21+1</f>
+        <f>F20+1</f>
         <v>44643</v>
       </c>
       <c r="G22" s="70">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H22" s="103"/>
-      <c r="I22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="J22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="L22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="M22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="N22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="O22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="P22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R22" s="29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="T22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="U22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="V22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="W22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="X22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Y22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Z22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AA22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AB22" s="29" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AC22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AD22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AE22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AF22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AG22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AH22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AI22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AJ22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AK22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AL22" s="29" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="AM22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AN22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AO22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AP22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AQ22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AR22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AS22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AT22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AU22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AV22" s="29" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="AW22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AX22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AY22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="AZ22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BA22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BB22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BC22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BD22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BE22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BF22" s="29" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v/>
-      </c>
-      <c r="BG22" s="29" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BH22" s="29" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BI22" s="29" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BJ22" s="29" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BK22" s="29" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="BL22" s="29" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="29"/>
+      <c r="BE22" s="29"/>
+      <c r="BF22" s="29"/>
+      <c r="BG22" s="29"/>
+      <c r="BH22" s="29"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="29"/>
+      <c r="BK22" s="29"/>
+      <c r="BL22" s="29"/>
       <c r="BM22" s="21"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="68">
         <v>1</v>
       </c>
       <c r="F23" s="69">
-        <f>F22+2</f>
-        <v>44645</v>
+        <f>F21+2</f>
+        <v>44644</v>
       </c>
       <c r="G23" s="70">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H23" s="103"/>
       <c r="I23" s="29" t="str">
@@ -7459,93 +7165,261 @@
       </c>
       <c r="BM23" s="21"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="71" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E24" s="68">
         <v>1</v>
       </c>
       <c r="F24" s="69">
-        <f>F25+0</f>
-        <v>44663</v>
+        <f>F20+7</f>
+        <v>44649</v>
       </c>
       <c r="G24" s="70">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H24" s="103"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
-      <c r="BB24" s="29"/>
-      <c r="BC24" s="29"/>
-      <c r="BD24" s="29"/>
-      <c r="BE24" s="29"/>
-      <c r="BF24" s="29"/>
-      <c r="BG24" s="29"/>
-      <c r="BH24" s="29"/>
-      <c r="BI24" s="29"/>
-      <c r="BJ24" s="29"/>
-      <c r="BK24" s="29"/>
-      <c r="BL24" s="29"/>
+      <c r="I24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="L24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="M24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="N24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="O24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="P24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Q24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="R24" s="29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="S24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Z24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AA24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AB24" s="29" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AC24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AD24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AE24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AF24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AG24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AH24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AI24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AJ24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AK24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AL24" s="29" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AM24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AN24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AO24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AQ24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AR24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AS24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AT24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AU24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AV24" s="29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AW24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AX24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AY24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AZ24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="BA24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="BB24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="BC24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="BD24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="BE24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="BF24" s="29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="BG24" s="29" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="BH24" s="29" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="BI24" s="29" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="BJ24" s="29" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="BK24" s="29" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="BL24" s="29" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
       <c r="BM24" s="21"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="71" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="67" t="s">
         <v>49</v>
@@ -7554,252 +7428,95 @@
         <v>1</v>
       </c>
       <c r="F25" s="69">
-        <f>F23+18</f>
-        <v>44663</v>
+        <f>F26+0</f>
+        <v>44667</v>
       </c>
       <c r="G25" s="70">
         <v>1</v>
       </c>
       <c r="H25" s="103"/>
-      <c r="I25" s="29" t="str">
-        <f t="shared" ref="I25:R26" ca="1" si="19">IF(AND($C25="Goal",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="L25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="M25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="N25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="O25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="P25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Q25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="R25" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="S25" s="29" t="str">
-        <f t="shared" ref="S25:AB26" ca="1" si="20">IF(AND($C25="Goal",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="U25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="V25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="W25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="X25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="Y25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="Z25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AA25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AB25" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AC25" s="29" t="str">
-        <f t="shared" ref="AC25:AL26" ca="1" si="21">IF(AND($C25="Goal",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AE25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AF25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AG25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AH25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AI25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AJ25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AK25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AL25" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AM25" s="29" t="str">
-        <f t="shared" ref="AM25:AV26" ca="1" si="22">IF(AND($C25="Goal",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AO25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AP25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AQ25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AR25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AS25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AT25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AU25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AV25" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AW25" s="29" t="str">
-        <f t="shared" ref="AW25:BF26" ca="1" si="23">IF(AND($C25="Goal",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AY25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="29">
-        <f t="shared" ca="1" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="BA25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BB25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BC25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BD25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BE25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BF25" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="BG25" s="29" t="str">
-        <f t="shared" ref="BG25:BL26" ca="1" si="24">IF(AND($C25="Goal",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH25" s="29" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BI25" s="29" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BJ25" s="29" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BK25" s="29" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BL25" s="29" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="29"/>
+      <c r="BC25" s="29"/>
+      <c r="BD25" s="29"/>
+      <c r="BE25" s="29"/>
+      <c r="BF25" s="29"/>
+      <c r="BG25" s="29"/>
+      <c r="BH25" s="29"/>
+      <c r="BI25" s="29"/>
+      <c r="BJ25" s="29"/>
+      <c r="BK25" s="29"/>
+      <c r="BL25" s="29"/>
       <c r="BM25" s="21"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
+      <c r="B26" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="68">
+        <v>1</v>
+      </c>
+      <c r="F26" s="69">
+        <f>F24+18</f>
+        <v>44667</v>
+      </c>
+      <c r="G26" s="70">
+        <v>1</v>
+      </c>
       <c r="H26" s="103"/>
       <c r="I26" s="29" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="I26:R27" ca="1" si="19">IF(AND($C26="Goal",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="29" t="str">
@@ -7839,7 +7556,7 @@
         <v/>
       </c>
       <c r="S26" s="29" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="S26:AB27" ca="1" si="20">IF(AND($C26="Goal",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="T26" s="29" t="str">
@@ -7879,7 +7596,7 @@
         <v/>
       </c>
       <c r="AC26" s="29" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="AC26:AL27" ca="1" si="21">IF(AND($C26="Goal",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AD26" s="29" t="str">
@@ -7919,7 +7636,7 @@
         <v/>
       </c>
       <c r="AM26" s="29" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="AM26:AV27" ca="1" si="22">IF(AND($C26="Goal",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AN26" s="29" t="str">
@@ -7959,7 +7676,7 @@
         <v/>
       </c>
       <c r="AW26" s="29" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="AW26:BF27" ca="1" si="23">IF(AND($C26="Goal",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AX26" s="29" t="str">
@@ -7999,7 +7716,7 @@
         <v/>
       </c>
       <c r="BG26" s="29" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="BG26:BL27" ca="1" si="24">IF(AND($C26="Goal",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BH26" s="29" t="str">
@@ -8024,278 +7741,267 @@
       </c>
       <c r="BM26" s="21"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="J27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="L27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="M27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="N27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="O27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="P27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="Q27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="R27" s="29" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="S27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="T27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="U27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="V27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="W27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="X27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="Y27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="Z27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AA27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AB27" s="29" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="AC27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AD27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AE27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AF27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AG27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AH27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AI27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AJ27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AK27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AL27" s="29" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AM27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AN27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AO27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AP27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AQ27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AR27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AS27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AT27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AU27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AV27" s="29" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AW27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AX27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AY27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AZ27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BA27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BB27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BC27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BD27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BE27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BF27" s="29" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="BG27" s="29" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BH27" s="29" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BI27" s="29" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BJ27" s="29" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BK27" s="29" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BL27" s="29" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="BM27" s="21"/>
+    </row>
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C28" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D28" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E28" s="68">
         <v>1</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F28" s="69">
         <f>F12+63</f>
         <v>44684</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G28" s="70">
         <v>28</v>
-      </c>
-      <c r="H27" s="103"/>
-      <c r="I27" s="29" t="str">
-        <f t="shared" ref="I27:R30" ca="1" si="25">IF(AND($C27="Goal",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="K27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="L27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="M27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="N27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="O27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="P27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="Q27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="R27" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="S27" s="29" t="str">
-        <f t="shared" ref="S27:AB30" ca="1" si="26">IF(AND($C27="Goal",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="U27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="V27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="W27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="X27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Y27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Z27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AA27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AB27" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AC27" s="29" t="str">
-        <f t="shared" ref="AC27:AM30" ca="1" si="27">IF(AND($C27="Goal",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AE27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AF27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AG27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AH27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AI27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AJ27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AK27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AL27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AM27" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AN27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),2,IF(AND(F31="Milestone",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO27" s="29" t="str">
-        <f t="shared" ref="AO27:AX30" ca="1" si="28">IF(AND($C27="Goal",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AQ27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AR27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AS27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AT27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AU27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AV27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AW27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AX27" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AY27" s="29" t="str">
-        <f t="shared" ref="AY27:BL30" ca="1" si="29">IF(AND($C27="Goal",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BA27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BB27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BC27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BD27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BE27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BF27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BG27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BH27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BI27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BJ27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BK27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BL27" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="BM27" s="21"/>
-    </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="68">
-        <v>1</v>
-      </c>
-      <c r="F28" s="69">
-        <f>F27+0</f>
-        <v>44684</v>
-      </c>
-      <c r="G28" s="70">
-        <v>1</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="29" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="I28:R33" ca="1" si="25">IF(AND($C28="Goal",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="J28" s="29" t="str">
@@ -8335,7 +8041,7 @@
         <v/>
       </c>
       <c r="S28" s="29" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="S28:AB33" ca="1" si="26">IF(AND($C28="Goal",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="T28" s="29" t="str">
@@ -8358,117 +8064,117 @@
         <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
-      <c r="Y28" s="29" t="str">
+      <c r="Y28" s="29">
         <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="Z28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="29">
         <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AA28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="29">
         <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AB28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="29">
         <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AC28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="29">
+        <f t="shared" ref="AC28:AM33" ca="1" si="27">IF(AND($C28="Goal",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AD28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AD28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AE28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AF28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AG28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AH28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AI28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AJ28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AK28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AL28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="29">
         <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AM28" s="29" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="AN28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="29">
+        <f ca="1">IF(AND($C28="Goal",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),2,IF(AND(F31="Milestone",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AO28" s="29">
+        <f t="shared" ref="AO28:AX33" ca="1" si="28">IF(AND($C28="Goal",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AP28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AP28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AR28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AS28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AT28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AU28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AU28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AV28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AW28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AX28" s="29">
         <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AX28" s="29" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
-      </c>
-      <c r="AY28" s="29" t="str">
+        <v>2</v>
+      </c>
+      <c r="AY28" s="29">
+        <f t="shared" ref="AY28:BL33" ca="1" si="29">IF(AND($C28="Goal",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ28" s="29">
         <f t="shared" ca="1" si="29"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="29" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BA28" s="29" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -8520,26 +8226,26 @@
       </c>
       <c r="BM28" s="21"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="71" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E29" s="68">
         <v>1</v>
       </c>
       <c r="F29" s="69">
-        <f>F28+7</f>
-        <v>44691</v>
+        <f>F28+0</f>
+        <v>44684</v>
       </c>
       <c r="G29" s="70">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H29" s="103"/>
       <c r="I29" s="29" t="str">
@@ -8768,26 +8474,26 @@
       </c>
       <c r="BM29" s="21"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="159" t="s">
+        <v>14</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="68">
         <v>1</v>
       </c>
       <c r="F30" s="69">
-        <f>F27+21</f>
-        <v>44705</v>
+        <f>F29+1</f>
+        <v>44685</v>
       </c>
       <c r="G30" s="70">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H30" s="103"/>
       <c r="I30" s="29" t="str">
@@ -9016,7 +8722,7 @@
       </c>
       <c r="BM30" s="21"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="71" t="s">
         <v>61</v>
@@ -9031,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="69">
-        <f>F27+14</f>
+        <f>F28+14</f>
         <v>44698</v>
       </c>
       <c r="G31" s="70">
@@ -9096,13 +8802,13 @@
       <c r="BL31" s="29"/>
       <c r="BM31" s="21"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="71" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>49</v>
@@ -9111,246 +8817,654 @@
         <v>1</v>
       </c>
       <c r="F32" s="69">
+        <f>F29+14</f>
+        <v>44698</v>
+      </c>
+      <c r="G32" s="70">
+        <v>1</v>
+      </c>
+      <c r="H32" s="103"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="29"/>
+      <c r="AT32" s="29"/>
+      <c r="AU32" s="29"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
+      <c r="BB32" s="29"/>
+      <c r="BC32" s="29"/>
+      <c r="BD32" s="29"/>
+      <c r="BE32" s="29"/>
+      <c r="BF32" s="29"/>
+      <c r="BG32" s="29"/>
+      <c r="BH32" s="29"/>
+      <c r="BI32" s="29"/>
+      <c r="BJ32" s="29"/>
+      <c r="BK32" s="29"/>
+      <c r="BL32" s="29"/>
+      <c r="BM32" s="21"/>
+    </row>
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="68">
+        <v>1</v>
+      </c>
+      <c r="F33" s="69">
+        <f>F28+15</f>
+        <v>44699</v>
+      </c>
+      <c r="G33" s="70">
+        <v>10</v>
+      </c>
+      <c r="H33" s="103"/>
+      <c r="I33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="J33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="K33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="L33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="M33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="N33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="O33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="P33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="Q33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="R33" s="29" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="S33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="T33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="U33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="V33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="W33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="X33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Y33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="Z33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="AA33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="AB33" s="29" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="AC33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AD33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AE33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AF33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AG33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AH33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AI33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AK33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AL33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AM33" s="29" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AN33" s="29" t="str">
+        <f ca="1">IF(AND($C33="Goal",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AP33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AR33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AS33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AT33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AU33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AV33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AW33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AX33" s="29" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AY33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BA33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BB33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BC33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BD33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BE33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BF33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BG33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BH33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BI33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BJ33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BK33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BL33" s="29" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="BM33" s="21"/>
+    </row>
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="68">
+        <v>1</v>
+      </c>
+      <c r="F34" s="69">
+        <f>F28+21</f>
+        <v>44705</v>
+      </c>
+      <c r="G34" s="70">
+        <v>6</v>
+      </c>
+      <c r="H34" s="103"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="29"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="29"/>
+      <c r="BB34" s="29"/>
+      <c r="BC34" s="29"/>
+      <c r="BD34" s="29"/>
+      <c r="BE34" s="29"/>
+      <c r="BF34" s="29"/>
+      <c r="BG34" s="29"/>
+      <c r="BH34" s="29"/>
+      <c r="BI34" s="29"/>
+      <c r="BJ34" s="29"/>
+      <c r="BK34" s="29"/>
+      <c r="BL34" s="29"/>
+      <c r="BM34" s="21"/>
+    </row>
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="68">
+        <v>1</v>
+      </c>
+      <c r="F35" s="69">
         <f>F17+76</f>
         <v>44711</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G35" s="70">
         <v>1</v>
       </c>
-      <c r="H32" s="103"/>
-      <c r="I32" s="29" t="str">
-        <f t="shared" ref="I32:R32" ca="1" si="30">IF(AND($C32="Goal",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J32" s="29" t="str">
+      <c r="H35" s="103"/>
+      <c r="I35" s="29" t="str">
+        <f t="shared" ref="I35:R35" ca="1" si="30">IF(AND($C35="Goal",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="K32" s="29" t="str">
+      <c r="K35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="L32" s="29" t="str">
+      <c r="L35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="M32" s="29" t="str">
+      <c r="M35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="N32" s="29" t="str">
+      <c r="N35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="O32" s="29" t="str">
+      <c r="O35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="P32" s="29" t="str">
+      <c r="P35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="Q32" s="29" t="str">
+      <c r="Q35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="R32" s="29" t="str">
+      <c r="R35" s="29" t="str">
         <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
-      <c r="S32" s="29" t="str">
-        <f t="shared" ref="S32:AB32" ca="1" si="31">IF(AND($C32="Goal",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T32" s="29" t="str">
+      <c r="S35" s="29" t="str">
+        <f t="shared" ref="S35:AB35" ca="1" si="31">IF(AND($C35="Goal",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="T35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="U32" s="29" t="str">
+      <c r="U35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="V32" s="29" t="str">
+      <c r="V35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="W32" s="29" t="str">
+      <c r="W35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="X32" s="29" t="str">
+      <c r="X35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="Y32" s="29" t="str">
+      <c r="Y35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="Z32" s="29" t="str">
+      <c r="Z35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AA32" s="29" t="str">
+      <c r="AA35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AB32" s="29" t="str">
+      <c r="AB35" s="29" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
-      <c r="AC32" s="29" t="str">
-        <f t="shared" ref="AC32:AL32" ca="1" si="32">IF(AND($C32="Goal",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD32" s="29" t="str">
+      <c r="AC35" s="29" t="str">
+        <f t="shared" ref="AC35:AL35" ca="1" si="32">IF(AND($C35="Goal",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AE32" s="29" t="str">
+      <c r="AE35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AF32" s="29" t="str">
+      <c r="AF35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AG32" s="29" t="str">
+      <c r="AG35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AH32" s="29" t="str">
+      <c r="AH35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AI32" s="29" t="str">
+      <c r="AI35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AJ32" s="29" t="str">
+      <c r="AJ35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AK32" s="29" t="str">
+      <c r="AK35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AL32" s="29" t="str">
+      <c r="AL35" s="29" t="str">
         <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
-      <c r="AM32" s="29" t="str">
-        <f t="shared" ref="AM32:AV32" ca="1" si="33">IF(AND($C32="Goal",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN32" s="29" t="str">
+      <c r="AM35" s="29" t="str">
+        <f t="shared" ref="AM35:AV35" ca="1" si="33">IF(AND($C35="Goal",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AN35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AO32" s="29" t="str">
+      <c r="AO35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AP32" s="29" t="str">
+      <c r="AP35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AQ32" s="29" t="str">
+      <c r="AQ35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AR32" s="29" t="str">
+      <c r="AR35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AS32" s="29" t="str">
+      <c r="AS35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AT32" s="29" t="str">
+      <c r="AT35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AU32" s="29" t="str">
+      <c r="AU35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AV32" s="29" t="str">
+      <c r="AV35" s="29" t="str">
         <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
-      <c r="AW32" s="29" t="str">
-        <f t="shared" ref="AW32:BF32" ca="1" si="34">IF(AND($C32="Goal",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX32" s="29" t="str">
+      <c r="AW35" s="29" t="str">
+        <f t="shared" ref="AW35:BF35" ca="1" si="34">IF(AND($C35="Goal",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AX35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="AY32" s="29" t="str">
+      <c r="AY35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="AZ32" s="29" t="str">
+      <c r="AZ35" s="29">
         <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="BA32" s="29" t="str">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BB32" s="29" t="str">
+      <c r="BB35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BC32" s="29" t="str">
+      <c r="BC35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BD32" s="29" t="str">
+      <c r="BD35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BE32" s="29" t="str">
+      <c r="BE35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BF32" s="29" t="str">
+      <c r="BF35" s="29" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
-      <c r="BG32" s="29" t="str">
-        <f t="shared" ref="BG32:BL32" ca="1" si="35">IF(AND($C32="Goal",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH32" s="29" t="str">
+      <c r="BG35" s="29" t="str">
+        <f t="shared" ref="BG35:BL35" ca="1" si="35">IF(AND($C35="Goal",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BH35" s="29" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="BI32" s="29" t="str">
+      <c r="BI35" s="29" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="BJ32" s="29" t="str">
+      <c r="BJ35" s="29" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="BK32" s="29" t="str">
+      <c r="BK35" s="29" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="BL32" s="29" t="str">
+      <c r="BL35" s="29" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="BM32" s="21"/>
+      <c r="BM35" s="21"/>
     </row>
-    <row r="33" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="4"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="3"/>
+    <row r="36" spans="1:65" ht="30" customHeight="1">
+      <c r="D36" s="4"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="3"/>
     </row>
-    <row r="34" spans="4:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="5"/>
+    <row r="37" spans="1:65" ht="30" customHeight="1">
+      <c r="D37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9363,8 +9477,8 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E17 E19:E23 E25:E30 E32">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="E9:E17 E19:E24 E26:E35">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9377,45 +9491,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL17 I19:BL23 I25:BL30 I32:BL32">
-    <cfRule type="expression" dxfId="70" priority="25">
+  <conditionalFormatting sqref="I7:BL17 I26:BL35 I19:BL24">
+    <cfRule type="expression" dxfId="44" priority="26">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="69" priority="28">
+    <cfRule type="expression" dxfId="43" priority="29">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="68" priority="27">
+    <cfRule type="expression" dxfId="42" priority="28">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="67" priority="26">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL17 I19:BL23 I25:BL30 I32:BL32">
-    <cfRule type="expression" dxfId="66" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="I10:BL17 I19:BL35">
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9429,29 +9543,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="61" priority="17">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="60" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
       <formula>AND($C18="Low Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
       <formula>AND($C18="High Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="23" stopIfTrue="1">
       <formula>AND($C18="On Track",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="24" stopIfTrue="1">
       <formula>AND($C18="Med Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="25" stopIfTrue="1">
       <formula>AND(LEN($C18)=0,I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9464,30 +9578,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="55" priority="9">
+  <conditionalFormatting sqref="I25:BL25">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="54" priority="11" stopIfTrue="1">
-      <formula>AND($C24="Low Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="12" stopIfTrue="1">
-      <formula>AND($C24="High Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="13" stopIfTrue="1">
-      <formula>AND($C24="On Track",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="14" stopIfTrue="1">
-      <formula>AND($C24="Med Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="15" stopIfTrue="1">
-      <formula>AND(LEN($C24)=0,I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9500,33 +9597,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="49" priority="1">
+  <conditionalFormatting sqref="I31:BL32">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
-      <formula>AND($C31="Low Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
-      <formula>AND($C31="High Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
-      <formula>AND($C31="On Track",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
-      <formula>AND($C31="Med Risk",I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
-      <formula>AND(LEN($C31)=0,I$7&gt;=$F31,I$7&lt;=$F31+$G31-1)</formula>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{41279F5F-57D3-4A88-89E6-B032C7D428E7}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="C7" xr:uid="{662A47A0-7258-440E-8D71-BC54CBC9C651}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C32" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C12:C35" xr:uid="{12A8278F-D51D-4B98-A311-DB5FCD18D214}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{218D9212-09C8-4DA2-9014-64503951B170}">
@@ -9596,7 +9690,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E17 E19:E23 E25:E30 E32</xm:sqref>
+          <xm:sqref>E9:E17 E19:E24 E26:E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F192945-8740-4BD7-9F9C-580C3F502630}">
@@ -9626,7 +9720,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E24</xm:sqref>
+          <xm:sqref>E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08CF092C-0654-4DA0-8A48-FE3763AC7034}">
@@ -9641,10 +9735,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E31</xm:sqref>
+          <xm:sqref>E31:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{B2541656-04BA-42B9-B264-A1E5B0B5D934}">
+          <x14:cfRule type="iconSet" priority="20" id="{B2541656-04BA-42B9-B264-A1E5B0B5D934}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9663,7 +9757,7 @@
           <xm:sqref>I18:BL18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{E363992E-1C90-4B27-B8B5-3CD196FFA938}">
+          <x14:cfRule type="iconSet" priority="17" id="{E363992E-1C90-4B27-B8B5-3CD196FFA938}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9679,10 +9773,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I24:BL24</xm:sqref>
+          <xm:sqref>I25:BL25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{E3D5DC45-ADAA-4167-93A7-3F7FB5B1083A}">
+          <x14:cfRule type="iconSet" priority="9" id="{E3D5DC45-ADAA-4167-93A7-3F7FB5B1083A}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9698,10 +9792,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I31:BL31</xm:sqref>
+          <xm:sqref>I31:BL32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="149" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+          <x14:cfRule type="iconSet" priority="150" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9717,7 +9811,22 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I10:BL17 I19:BL23 I25:BL30 I32:BL32</xm:sqref>
+          <xm:sqref>I10:BL17 I19:BL24 I26:BL30 I33:BL35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41279F5F-57D3-4A88-89E6-B032C7D428E7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9734,7 +9843,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="12" customWidth="1"/>
@@ -9749,30 +9858,30 @@
     <col min="66" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="25.2" customHeight="1"/>
+    <row r="2" spans="1:68" ht="49.95" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -9819,7 +9928,7 @@
       <c r="BL2" s="23"/>
       <c r="BM2" s="23"/>
     </row>
-    <row r="3" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" ht="19.95" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
@@ -9886,7 +9995,7 @@
       <c r="BL3" s="37"/>
       <c r="BM3" s="35"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="30" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="62" t="s">
         <v>22</v>
@@ -9899,26 +10008,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="149" t="s">
+      <c r="N4" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
       <c r="W4" s="35"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -9967,7 +10076,7 @@
       <c r="BL4" s="35"/>
       <c r="BM4" s="35"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="30" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="63" t="s">
         <v>21</v>
@@ -10036,14 +10145,14 @@
       <c r="BL5" s="37"/>
       <c r="BM5" s="35"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:68" ht="30" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="56" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="39" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>44710</v>
+        <v>44711</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="35"/>
@@ -10132,7 +10241,7 @@
       <c r="BL6" s="73"/>
       <c r="BM6" s="35"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="56" t="s">
         <v>12</v>
@@ -10147,231 +10256,231 @@
       <c r="H7" s="38"/>
       <c r="I7" s="114">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44711</v>
+        <v>44712</v>
       </c>
       <c r="J7" s="19">
         <f ca="1">I7+1</f>
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44714</v>
+        <v>44715</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="O7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44717</v>
+        <v>44718</v>
       </c>
       <c r="P7" s="19">
         <f ca="1">O7+1</f>
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="Q7" s="19">
         <f ca="1">P7+1</f>
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="S7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="T7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44722</v>
+        <v>44723</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44723</v>
+        <v>44724</v>
       </c>
       <c r="V7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44724</v>
+        <v>44725</v>
       </c>
       <c r="W7" s="19">
         <f ca="1">V7+1</f>
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="X7" s="19">
         <f ca="1">W7+1</f>
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="Y7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="Z7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44729</v>
+        <v>44730</v>
       </c>
       <c r="AB7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44730</v>
+        <v>44731</v>
       </c>
       <c r="AC7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44731</v>
+        <v>44732</v>
       </c>
       <c r="AD7" s="19">
         <f ca="1">AC7+1</f>
-        <v>44732</v>
+        <v>44733</v>
       </c>
       <c r="AE7" s="19">
         <f ca="1">AD7+1</f>
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="AF7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="AG7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="AH7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44736</v>
+        <v>44737</v>
       </c>
       <c r="AI7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44737</v>
+        <v>44738</v>
       </c>
       <c r="AJ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="AK7" s="19">
         <f ca="1">AJ7+1</f>
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="AL7" s="19">
         <f ca="1">AK7+1</f>
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="AM7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="AN7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="AO7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="AP7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44744</v>
+        <v>44745</v>
       </c>
       <c r="AQ7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="AR7" s="19">
         <f ca="1">AQ7+1</f>
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="AS7" s="19">
         <f ca="1">AR7+1</f>
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="AT7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="AU7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="AV7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="AW7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="AX7" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="AY7" s="19">
         <f ca="1">AX7+1</f>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="AZ7" s="19">
         <f ca="1">AY7+1</f>
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="BA7" s="19">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="BB7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="BC7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="BD7" s="19">
         <f t="shared" ca="1" si="1"/>
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="BE7" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="BF7" s="19">
         <f ca="1">BE7+1</f>
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="BG7" s="19">
         <f ca="1">BF7+1</f>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="BH7" s="19">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="BI7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="BJ7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="BK7" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="BL7" s="20">
         <f t="shared" ca="1" si="2"/>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
-    <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="19.95" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -10438,7 +10547,7 @@
       <c r="BL8" s="45"/>
       <c r="BM8" s="35"/>
     </row>
-    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="137" t="s">
         <v>23</v>
@@ -10461,23 +10570,23 @@
       <c r="H9" s="55"/>
       <c r="I9" s="43" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="J9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="K9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="L9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="M9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="N9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10485,27 +10594,27 @@
       </c>
       <c r="O9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="P9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="R9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="S9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="T9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10513,27 +10622,27 @@
       </c>
       <c r="V9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="W9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="X9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="Y9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="Z9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10541,27 +10650,27 @@
       </c>
       <c r="AC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10569,27 +10678,27 @@
       </c>
       <c r="AJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AM9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AN9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AO9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10597,27 +10706,27 @@
       </c>
       <c r="AQ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AR9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AS9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AT9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AU9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AV9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10625,27 +10734,27 @@
       </c>
       <c r="AX9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AY9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AZ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BA9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BB9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BC9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10653,27 +10762,27 @@
       </c>
       <c r="BE9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BF9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BG9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BH9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BI9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BJ9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10681,11 +10790,11 @@
       </c>
       <c r="BL9" s="43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -10751,7 +10860,7 @@
       <c r="BL10" s="42"/>
       <c r="BM10" s="35"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="139" t="s">
         <v>30</v>
@@ -10989,7 +11098,7 @@
       <c r="BM11" s="31"/>
       <c r="BP11" s="47"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="28" t="s">
         <v>3</v>
@@ -11005,7 +11114,7 @@
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>44710</v>
+        <v>44711</v>
       </c>
       <c r="G12" s="27">
         <v>3</v>
@@ -11237,7 +11346,7 @@
       </c>
       <c r="BM12" s="31"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="28" t="s">
         <v>4</v>
@@ -11249,7 +11358,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26">
         <f ca="1">TODAY()+5</f>
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="G13" s="27">
         <v>1</v>
@@ -11481,7 +11590,7 @@
       </c>
       <c r="BM13" s="31"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="28" t="s">
         <v>0</v>
@@ -11495,7 +11604,7 @@
       </c>
       <c r="F14" s="26">
         <f ca="1">F12-3</f>
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="G14" s="27">
         <v>10</v>
@@ -11727,7 +11836,7 @@
       </c>
       <c r="BM14" s="31"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="28" t="s">
         <v>1</v>
@@ -11739,7 +11848,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26">
         <f ca="1">F12+20</f>
-        <v>44730</v>
+        <v>44731</v>
       </c>
       <c r="G15" s="27">
         <v>1</v>
@@ -11971,7 +12080,7 @@
       </c>
       <c r="BM15" s="31"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="28" t="s">
         <v>2</v>
@@ -11985,7 +12094,7 @@
       </c>
       <c r="F16" s="26">
         <f ca="1">F12+6</f>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="G16" s="27">
         <v>6</v>
@@ -12217,7 +12326,7 @@
       </c>
       <c r="BM16" s="31"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="139" t="s">
         <v>31</v>
@@ -12454,7 +12563,7 @@
       </c>
       <c r="BM17" s="31"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>3</v>
@@ -12468,7 +12577,7 @@
       </c>
       <c r="F18" s="26">
         <f ca="1">F12+6</f>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="G18" s="27">
         <v>13</v>
@@ -12700,7 +12809,7 @@
       </c>
       <c r="BM18" s="31"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="28" t="s">
         <v>4</v>
@@ -12714,7 +12823,7 @@
       </c>
       <c r="F19" s="26">
         <f ca="1">F18+2</f>
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="G19" s="27">
         <v>9</v>
@@ -12946,7 +13055,7 @@
       </c>
       <c r="BM19" s="31"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="28" t="s">
         <v>0</v>
@@ -12960,7 +13069,7 @@
       </c>
       <c r="F20" s="26">
         <f ca="1">F19+5</f>
-        <v>44723</v>
+        <v>44724</v>
       </c>
       <c r="G20" s="27">
         <v>11</v>
@@ -13192,7 +13301,7 @@
       </c>
       <c r="BM20" s="31"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="28" t="s">
         <v>1</v>
@@ -13204,7 +13313,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="26">
         <f ca="1">F20+2</f>
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="G21" s="27">
         <v>1</v>
@@ -13436,7 +13545,7 @@
       </c>
       <c r="BM21" s="31"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="28" t="s">
         <v>2</v>
@@ -13446,7 +13555,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="26">
         <f ca="1">F21+1</f>
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="G22" s="27">
         <v>24</v>
@@ -13678,7 +13787,7 @@
       </c>
       <c r="BM22" s="31"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="139" t="s">
         <v>32</v>
@@ -13915,7 +14024,7 @@
       </c>
       <c r="BM23" s="31"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
         <v>3</v>
@@ -13927,7 +14036,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="26">
         <f ca="1">F12+15</f>
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="G24" s="27">
         <v>4</v>
@@ -14159,7 +14268,7 @@
       </c>
       <c r="BM24" s="31"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
         <v>4</v>
@@ -14171,7 +14280,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="26">
         <f ca="1">F24+3</f>
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="G25" s="27">
         <v>14</v>
@@ -14403,7 +14512,7 @@
       </c>
       <c r="BM25" s="31"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="28" t="s">
         <v>0</v>
@@ -14415,7 +14524,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="26">
         <f ca="1">F25+15</f>
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="G26" s="27">
         <v>6</v>
@@ -14647,7 +14756,7 @@
       </c>
       <c r="BM26" s="31"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="28" t="s">
         <v>1</v>
@@ -14659,7 +14768,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="26">
         <f ca="1">F21+22</f>
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="G27" s="27">
         <v>3</v>
@@ -14891,7 +15000,7 @@
       </c>
       <c r="BM27" s="31"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="28" t="s">
         <v>2</v>
@@ -14903,7 +15012,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="26">
         <f ca="1">F16</f>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="G28" s="27">
         <v>19</v>
@@ -15135,7 +15244,7 @@
       </c>
       <c r="BM28" s="31"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="139" t="s">
         <v>33</v>
@@ -15372,7 +15481,7 @@
       </c>
       <c r="BM29" s="31"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="28" t="s">
         <v>3</v>
@@ -15382,7 +15491,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26">
         <f ca="1">F27+3</f>
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -15614,7 +15723,7 @@
       </c>
       <c r="BM30" s="31"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="28" t="s">
         <v>4</v>
@@ -15624,7 +15733,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="26">
         <f ca="1">F30+14</f>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="G31" s="27">
         <v>5</v>
@@ -15856,7 +15965,7 @@
       </c>
       <c r="BM31" s="31"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="28" t="s">
         <v>0</v>
@@ -15868,7 +15977,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="26">
         <f ca="1">F31+42</f>
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="G32" s="27">
         <v>1</v>
@@ -16100,7 +16209,7 @@
       </c>
       <c r="BM32" s="31"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="28" t="s">
         <v>1</v>
@@ -16337,7 +16446,7 @@
       </c>
       <c r="BM33" s="31"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="28" t="s">
         <v>2</v>
@@ -16574,7 +16683,7 @@
       </c>
       <c r="BM34" s="31"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="28"/>
       <c r="C35" s="24"/>
@@ -16809,7 +16918,7 @@
       </c>
       <c r="BM35" s="75"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="135" t="s">
         <v>20</v>
@@ -16878,12 +16987,12 @@
       <c r="BL36" s="74"/>
       <c r="BM36" s="52"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" ht="30" customHeight="1">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65" ht="30" customHeight="1">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -16912,56 +17021,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17096,7 +17205,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="12" customWidth="1"/>
@@ -17111,30 +17220,30 @@
     <col min="66" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="25.2" customHeight="1"/>
+    <row r="2" spans="1:68" ht="49.95" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
       <c r="W2" s="115"/>
@@ -17181,7 +17290,7 @@
       <c r="BL2" s="115"/>
       <c r="BM2" s="115"/>
     </row>
-    <row r="3" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" ht="19.95" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="77"/>
       <c r="C3" s="78"/>
@@ -17248,7 +17357,7 @@
       <c r="BL3" s="98"/>
       <c r="BM3" s="99"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="30" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="81" t="s">
         <v>22</v>
@@ -17261,26 +17370,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="149" t="s">
+      <c r="N4" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
       <c r="W4" s="99"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -17329,7 +17438,7 @@
       <c r="BL4" s="99"/>
       <c r="BM4" s="99"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="30" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="87" t="s">
         <v>21</v>
@@ -17398,14 +17507,14 @@
       <c r="BL5" s="98"/>
       <c r="BM5" s="99"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:68" ht="30" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="90" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44710</v>
+        <v>44711</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="84"/>
@@ -17494,7 +17603,7 @@
       <c r="BL6" s="108"/>
       <c r="BM6" s="99"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" ht="30" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="89" t="s">
         <v>12</v>
@@ -17509,231 +17618,231 @@
       <c r="H7" s="94"/>
       <c r="I7" s="116">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="J7" s="117">
         <f ca="1">I7+1</f>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="K7" s="117">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44717</v>
+        <v>44718</v>
       </c>
       <c r="L7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="M7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="N7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="O7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="P7" s="117">
         <f ca="1">O7+1</f>
-        <v>44722</v>
+        <v>44723</v>
       </c>
       <c r="Q7" s="117">
         <f ca="1">P7+1</f>
-        <v>44723</v>
+        <v>44724</v>
       </c>
       <c r="R7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44724</v>
+        <v>44725</v>
       </c>
       <c r="S7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="T7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="U7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="V7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="W7" s="117">
         <f ca="1">V7+1</f>
-        <v>44729</v>
+        <v>44730</v>
       </c>
       <c r="X7" s="117">
         <f ca="1">W7+1</f>
-        <v>44730</v>
+        <v>44731</v>
       </c>
       <c r="Y7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44731</v>
+        <v>44732</v>
       </c>
       <c r="Z7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44732</v>
+        <v>44733</v>
       </c>
       <c r="AA7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="AB7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="AC7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="AD7" s="117">
         <f ca="1">AC7+1</f>
-        <v>44736</v>
+        <v>44737</v>
       </c>
       <c r="AE7" s="117">
         <f ca="1">AD7+1</f>
-        <v>44737</v>
+        <v>44738</v>
       </c>
       <c r="AF7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="AG7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="AH7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="AI7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="AJ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="AK7" s="117">
         <f ca="1">AJ7+1</f>
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="AL7" s="117">
         <f ca="1">AK7+1</f>
-        <v>44744</v>
+        <v>44745</v>
       </c>
       <c r="AM7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="AN7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="AO7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="AP7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="AQ7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="AR7" s="117">
         <f ca="1">AQ7+1</f>
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="AS7" s="117">
         <f ca="1">AR7+1</f>
-        <v>44751</v>
+        <v>44752</v>
       </c>
       <c r="AT7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44752</v>
+        <v>44753</v>
       </c>
       <c r="AU7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="AV7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="AW7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="AX7" s="118">
         <f t="shared" ca="1" si="0"/>
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="AY7" s="117">
         <f ca="1">AX7+1</f>
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="AZ7" s="117">
         <f ca="1">AY7+1</f>
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="BA7" s="117">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="BB7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="BC7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="BD7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="BE7" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="BF7" s="117">
         <f ca="1">BE7+1</f>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="BG7" s="117">
         <f ca="1">BF7+1</f>
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="BH7" s="117">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="BI7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="BJ7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="BK7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="BL7" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="BM7" s="99"/>
     </row>
-    <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="19.95" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="95"/>
       <c r="C8" s="95"/>
@@ -17800,7 +17909,7 @@
       <c r="BL8" s="123"/>
       <c r="BM8" s="99"/>
     </row>
-    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="140" t="s">
         <v>23</v>
@@ -17823,7 +17932,7 @@
       <c r="H9" s="105"/>
       <c r="I9" s="124" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="J9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17831,27 +17940,27 @@
       </c>
       <c r="K9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="L9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="M9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="N9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="O9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="P9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17859,27 +17968,27 @@
       </c>
       <c r="R9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="S9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="T9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="U9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="V9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="W9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="X9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17887,27 +17996,27 @@
       </c>
       <c r="Y9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Z9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17915,27 +18024,27 @@
       </c>
       <c r="AF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17943,27 +18052,27 @@
       </c>
       <c r="AM9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AN9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AO9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AP9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AQ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AR9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17971,27 +18080,27 @@
       </c>
       <c r="AT9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AU9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AV9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AW9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AX9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AY9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -17999,27 +18108,27 @@
       </c>
       <c r="BA9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BB9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BC9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BD9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BE9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BF9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18027,27 +18136,27 @@
       </c>
       <c r="BH9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BI9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BJ9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BK9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BL9" s="124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BM9" s="99"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -18113,7 +18222,7 @@
       <c r="BL10" s="42"/>
       <c r="BM10" s="99"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="134" t="s">
         <v>30</v>
@@ -18351,7 +18460,7 @@
       <c r="BM11" s="21"/>
       <c r="BP11" s="47"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="71" t="s">
         <v>3</v>
@@ -18367,7 +18476,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44710</v>
+        <v>44711</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -18599,7 +18708,7 @@
       </c>
       <c r="BM12" s="21"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="71" t="s">
         <v>4</v>
@@ -18611,7 +18720,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44715</v>
+        <v>44716</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -18843,7 +18952,7 @@
       </c>
       <c r="BM13" s="21"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="71" t="s">
         <v>0</v>
@@ -18857,7 +18966,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -19089,7 +19198,7 @@
       </c>
       <c r="BM14" s="21"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="71" t="s">
         <v>1</v>
@@ -19101,7 +19210,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44730</v>
+        <v>44731</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -19333,7 +19442,7 @@
       </c>
       <c r="BM15" s="21"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="71" t="s">
         <v>2</v>
@@ -19347,7 +19456,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -19579,7 +19688,7 @@
       </c>
       <c r="BM16" s="21"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="134" t="s">
         <v>31</v>
@@ -19816,7 +19925,7 @@
       </c>
       <c r="BM17" s="21"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="71" t="s">
         <v>3</v>
@@ -19830,7 +19939,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -20062,7 +20171,7 @@
       </c>
       <c r="BM18" s="21"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="71" t="s">
         <v>4</v>
@@ -20076,7 +20185,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -20308,7 +20417,7 @@
       </c>
       <c r="BM19" s="21"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="71" t="s">
         <v>0</v>
@@ -20322,7 +20431,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44723</v>
+        <v>44724</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -20554,7 +20663,7 @@
       </c>
       <c r="BM20" s="21"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="71" t="s">
         <v>1</v>
@@ -20566,7 +20675,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -20798,7 +20907,7 @@
       </c>
       <c r="BM21" s="21"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="71" t="s">
         <v>2</v>
@@ -20808,7 +20917,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -21040,7 +21149,7 @@
       </c>
       <c r="BM22" s="21"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="134" t="s">
         <v>32</v>
@@ -21277,7 +21386,7 @@
       </c>
       <c r="BM23" s="21"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="71" t="s">
         <v>3</v>
@@ -21289,7 +21398,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -21521,7 +21630,7 @@
       </c>
       <c r="BM24" s="21"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="71" t="s">
         <v>4</v>
@@ -21533,7 +21642,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -21765,7 +21874,7 @@
       </c>
       <c r="BM25" s="21"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="71" t="s">
         <v>0</v>
@@ -21777,7 +21886,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -22009,7 +22118,7 @@
       </c>
       <c r="BM26" s="21"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="71" t="s">
         <v>1</v>
@@ -22021,7 +22130,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -22253,7 +22362,7 @@
       </c>
       <c r="BM27" s="21"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="71" t="s">
         <v>2</v>
@@ -22265,7 +22374,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44716</v>
+        <v>44717</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -22497,7 +22606,7 @@
       </c>
       <c r="BM28" s="21"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="134" t="s">
         <v>33</v>
@@ -22734,7 +22843,7 @@
       </c>
       <c r="BM29" s="21"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="71" t="s">
         <v>3</v>
@@ -22744,7 +22853,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -22976,7 +23085,7 @@
       </c>
       <c r="BM30" s="21"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="71" t="s">
         <v>4</v>
@@ -22986,7 +23095,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44764</v>
+        <v>44765</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -23218,7 +23327,7 @@
       </c>
       <c r="BM31" s="21"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="71" t="s">
         <v>0</v>
@@ -23230,7 +23339,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -23462,7 +23571,7 @@
       </c>
       <c r="BM32" s="21"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="71" t="s">
         <v>1</v>
@@ -23699,7 +23808,7 @@
       </c>
       <c r="BM33" s="21"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="71" t="s">
         <v>2</v>
@@ -23936,7 +24045,7 @@
       </c>
       <c r="BM34" s="21"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="71"/>
       <c r="C35" s="67"/>
@@ -24171,7 +24280,7 @@
       </c>
       <c r="BM35" s="106"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="136" t="s">
         <v>20</v>
@@ -24240,12 +24349,12 @@
       <c r="BL36" s="104"/>
       <c r="BM36" s="97"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65" ht="30" customHeight="1">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65" ht="30" customHeight="1">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -24274,56 +24383,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24450,25 +24559,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24744,6 +24834,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24754,18 +24863,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24786,6 +24883,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>

--- a/Documentation/Iteration 2/Agile Gantt Chart.xlsx
+++ b/Documentation/Iteration 2/Agile Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEA6834-D1BA-4E01-BA39-E79748F047D8}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{684D94CC-A0DE-4247-869E-2F69DEFAB9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{495767BB-9058-431F-A2D2-F62A24ED6521}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="69">
   <si>
     <t>Task 3</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Elisa, Sass</t>
   </si>
   <si>
-    <t>User Acceptance Test Results Template</t>
-  </si>
-  <si>
     <t>ITERATION 3 COMPLETED</t>
   </si>
   <si>
@@ -270,6 +267,18 @@
   </si>
   <si>
     <t>Deploy Timups website</t>
+  </si>
+  <si>
+    <t>Group 6</t>
+  </si>
+  <si>
+    <t>Sass Russell, Elisa Bertoni</t>
+  </si>
+  <si>
+    <t>AGILE PROJECT - E-Commerce Website</t>
+  </si>
+  <si>
+    <t>Manuel User Testing + User Acceptance Test Results Template</t>
   </si>
 </sst>
 </file>
@@ -606,7 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,9 +1269,6 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,6 +1308,9 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1318,6 +1327,36 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="74">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1570,6 +1609,36 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1813,6 +1882,121 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2075,181 +2259,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2612,9 +2621,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>209549</xdr:colOff>
+          <xdr:colOff>220980</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2765,7 +2774,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G35" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G35" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B9:G35" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2775,12 +2784,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="54" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="53" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2792,7 +2801,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2802,9 +2811,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2819,7 +2828,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2829,9 +2838,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3283,8 +3292,8 @@
   </sheetPr>
   <dimension ref="A1:BP37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1"/>
@@ -3305,27 +3314,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
+      <c r="B2" s="159" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
@@ -3442,7 +3451,7 @@
     <row r="4" spans="1:68" ht="30" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="81" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="83"/>
@@ -3452,26 +3461,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
       <c r="W4" s="99"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -3523,7 +3532,7 @@
     <row r="5" spans="1:68" ht="30" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="87" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -4544,7 +4553,7 @@
     <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="67" t="s">
         <v>8</v>
@@ -4791,7 +4800,7 @@
     <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="67" t="s">
         <v>14</v>
@@ -5532,7 +5541,7 @@
     <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="67" t="s">
         <v>16</v>
@@ -5612,7 +5621,7 @@
     <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="67" t="s">
         <v>13</v>
@@ -5859,7 +5868,7 @@
     <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="67" t="s">
         <v>9</v>
@@ -6344,7 +6353,7 @@
     <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>8</v>
@@ -6592,7 +6601,7 @@
     <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="67" t="s">
         <v>14</v>
@@ -6840,7 +6849,7 @@
     <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="67" t="s">
         <v>14</v>
@@ -7416,7 +7425,7 @@
     <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="67" t="s">
         <v>16</v>
@@ -7981,7 +7990,7 @@
     <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>8</v>
@@ -8229,7 +8238,7 @@
     <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>14</v>
@@ -8479,8 +8488,8 @@
       <c r="B30" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="159" t="s">
-        <v>14</v>
+      <c r="C30" s="158" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="67" t="s">
         <v>41</v>
@@ -8725,7 +8734,7 @@
     <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="67" t="s">
         <v>16</v>
@@ -8805,7 +8814,7 @@
     <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="67" t="s">
         <v>14</v>
@@ -8882,10 +8891,10 @@
       <c r="BL32" s="29"/>
       <c r="BM32" s="21"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="71" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C33" s="67" t="s">
         <v>15</v>
@@ -8901,7 +8910,7 @@
         <v>44699</v>
       </c>
       <c r="G33" s="70">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H33" s="103"/>
       <c r="I33" s="29" t="str">
@@ -9133,7 +9142,7 @@
     <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="67" t="s">
         <v>13</v>
@@ -9213,7 +9222,7 @@
     <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="67" t="s">
         <v>9</v>
@@ -9492,39 +9501,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL17 I26:BL35 I19:BL24">
-    <cfRule type="expression" dxfId="44" priority="26">
+    <cfRule type="expression" dxfId="60" priority="26">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="43" priority="29">
+    <cfRule type="expression" dxfId="59" priority="29">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="42" priority="28">
+    <cfRule type="expression" dxfId="58" priority="28">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="41" priority="27">
+    <cfRule type="expression" dxfId="57" priority="27">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL17 I19:BL35">
-    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="32" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="33" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="34" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="35" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="36" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9543,24 +9552,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="35" priority="18">
+    <cfRule type="expression" dxfId="51" priority="18">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="34" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="21" stopIfTrue="1">
       <formula>AND($C18="Low Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="22" stopIfTrue="1">
       <formula>AND($C18="High Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="23" stopIfTrue="1">
       <formula>AND($C18="On Track",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
       <formula>AND($C18="Med Risk",I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="25" stopIfTrue="1">
       <formula>AND(LEN($C18)=0,I$7&gt;=$F18,I$7&lt;=$F18+$G18-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9579,7 +9588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="45" priority="10">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9598,7 +9607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL32">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9738,6 +9747,21 @@
           <xm:sqref>E31:E32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41279F5F-57D3-4A88-89E6-B032C7D428E7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="20" id="{B2541656-04BA-42B9-B264-A1E5B0B5D934}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -9813,21 +9837,6 @@
           </x14:cfRule>
           <xm:sqref>I10:BL17 I19:BL24 I26:BL30 I33:BL35</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41279F5F-57D3-4A88-89E6-B032C7D428E7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E22</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -9861,27 +9870,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -10008,26 +10017,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
       <c r="W4" s="35"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -17021,56 +17030,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17223,27 +17232,27 @@
     <row r="1" spans="1:68" ht="25.2" customHeight="1"/>
     <row r="2" spans="1:68" ht="49.95" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
       <c r="W2" s="115"/>
@@ -17370,26 +17379,26 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="151" t="s">
+      <c r="S4" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
       <c r="W4" s="99"/>
       <c r="X4" s="144" t="s">
         <v>29</v>
@@ -24383,56 +24392,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="4" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24559,6 +24568,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24834,25 +24862,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24863,6 +24872,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24883,18 +24904,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
